--- a/CheckTranslationWidthAPP/CheckTranslationWidthAPP/bin/Debug/C-E-Spanish.xlsx
+++ b/CheckTranslationWidthAPP/CheckTranslationWidthAPP/bin/Debug/C-E-Spanish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="18600" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="翻译" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="216">
   <si>
     <t>校验码</t>
   </si>
@@ -49,9 +49,6 @@
     <t>General</t>
   </si>
   <si>
-    <t>请填写翻译</t>
-  </si>
-  <si>
     <t>str_SerialNoAbbreviation</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
     <t>Neutropenia</t>
   </si>
   <si>
+    <t>NeutropeniaU</t>
+  </si>
+  <si>
     <t>str_RbcAbnDistribution</t>
   </si>
   <si>
@@ -157,6 +157,9 @@
     <t>Indissolvable RBC appears</t>
   </si>
   <si>
+    <t>Indissolvable RBC appearsU</t>
+  </si>
+  <si>
     <t>str_RbcAgglutination</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t>Gemmule?</t>
   </si>
   <si>
+    <t>Gemmule?U</t>
+  </si>
+  <si>
     <t>str_AbnLympho</t>
   </si>
   <si>
@@ -256,6 +262,9 @@
     <t>Error</t>
   </si>
   <si>
+    <t>ErrorU</t>
+  </si>
+  <si>
     <t>str_ReticTest</t>
   </si>
   <si>
@@ -283,6 +292,9 @@
     <t>No</t>
   </si>
   <si>
+    <t>NoU</t>
+  </si>
+  <si>
     <t>str_Init_OK</t>
   </si>
   <si>
@@ -313,6 +325,9 @@
     <t>常规</t>
   </si>
   <si>
+    <t>GeneralU</t>
+  </si>
+  <si>
     <t>str_Log_InfoError</t>
   </si>
   <si>
@@ -451,6 +466,9 @@
     <t>Cal 2(%)</t>
   </si>
   <si>
+    <t>Cal 2(%)U</t>
+  </si>
+  <si>
     <t>str_Cal_CalValue3</t>
   </si>
   <si>
@@ -514,6 +532,9 @@
     <t>str_Print_CalValue</t>
   </si>
   <si>
+    <t>Cal(%)U</t>
+  </si>
+  <si>
     <t>str_AutoSampleState_Normal</t>
   </si>
   <si>
@@ -559,6 +580,9 @@
     <t>Screening users:</t>
   </si>
   <si>
+    <t>Screening users:U</t>
+  </si>
+  <si>
     <t>str_ReagentCount_Bootstrap</t>
   </si>
   <si>
@@ -620,6 +644,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>TotalU</t>
   </si>
   <si>
     <t>str_LJQCImportWindow_QCFile</t>
@@ -642,21 +669,71 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -669,8 +746,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -700,23 +778,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -731,38 +795,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -793,20 +826,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,7 +853,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,13 +919,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,7 +949,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +991,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,139 +1015,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,15 +1044,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1051,41 +1062,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,8 +1089,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,160 +1135,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1610,14 +1629,14 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="12.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="2" max="4" width="25"/>
-    <col min="5" max="5" width="15"/>
+    <col min="2" max="3" width="25"/>
+    <col min="4" max="5" width="30.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1658,8 +1677,8 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1667,33 +1686,31 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1701,16 +1718,16 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1726,8 +1743,8 @@
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1743,8 +1760,8 @@
       <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1760,8 +1777,8 @@
       <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1777,8 +1794,8 @@
       <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1794,8 +1811,8 @@
       <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1811,8 +1828,8 @@
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1828,8 +1845,8 @@
       <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1845,8 +1862,8 @@
       <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1862,8 +1879,8 @@
       <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1871,16 +1888,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1888,16 +1905,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1905,16 +1922,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1922,16 +1939,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1939,16 +1956,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1956,16 +1973,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1973,16 +1990,16 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1990,16 +2007,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>11</v>
+        <v>72</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2007,16 +2024,16 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2024,16 +2041,16 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>11</v>
+        <v>78</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2041,16 +2058,16 @@
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2058,16 +2075,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>11</v>
+        <v>85</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2075,16 +2092,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>11</v>
+        <v>88</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2092,16 +2109,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2109,16 +2126,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>11</v>
+        <v>88</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2126,16 +2143,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>11</v>
+        <v>97</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2143,16 +2160,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>11</v>
+        <v>100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2160,16 +2177,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>11</v>
+      <c r="E33" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2177,16 +2194,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2194,16 +2211,16 @@
         <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>11</v>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2211,16 +2228,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2228,16 +2245,16 @@
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>11</v>
+        <v>110</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2245,16 +2262,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>11</v>
+        <v>113</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2262,16 +2279,16 @@
         <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>11</v>
+        <v>116</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2279,16 +2296,16 @@
         <v>7</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>11</v>
+        <v>119</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2296,16 +2313,16 @@
         <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>11</v>
+        <v>122</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2313,16 +2330,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2330,16 +2347,16 @@
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>11</v>
+        <v>128</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2347,16 +2364,16 @@
         <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>11</v>
+        <v>130</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2364,16 +2381,16 @@
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>11</v>
+      <c r="E45" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2381,16 +2398,16 @@
         <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2398,16 +2415,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2415,16 +2432,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2432,16 +2449,16 @@
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>11</v>
+        <v>137</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2449,16 +2466,16 @@
         <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>11</v>
+        <v>140</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2466,16 +2483,16 @@
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>11</v>
+        <v>143</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2483,16 +2500,16 @@
         <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>11</v>
+        <v>146</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2500,16 +2517,16 @@
         <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>11</v>
+        <v>149</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2517,16 +2534,16 @@
         <v>7</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>11</v>
+        <v>153</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2534,16 +2551,16 @@
         <v>7</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>11</v>
+        <v>156</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2551,16 +2568,16 @@
         <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>11</v>
+        <v>159</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2568,16 +2585,16 @@
         <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>11</v>
+        <v>161</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2585,16 +2602,16 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>11</v>
+        <v>164</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2602,16 +2619,16 @@
         <v>7</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>11</v>
+        <v>167</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2619,16 +2636,16 @@
         <v>7</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>11</v>
+        <v>170</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2636,16 +2653,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>11</v>
+        <v>143</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2653,16 +2670,16 @@
         <v>7</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>11</v>
+        <v>137</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2670,16 +2687,16 @@
         <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2687,16 +2704,16 @@
         <v>7</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>11</v>
+        <v>178</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2704,16 +2721,16 @@
         <v>7</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>11</v>
+        <v>181</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2721,16 +2738,16 @@
         <v>7</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>11</v>
+        <v>184</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2738,16 +2755,16 @@
         <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>11</v>
+        <v>187</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2755,16 +2772,16 @@
         <v>7</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>11</v>
+        <v>191</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2772,16 +2789,16 @@
         <v>7</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>11</v>
+        <v>194</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2789,16 +2806,16 @@
         <v>7</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>11</v>
+        <v>197</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2806,16 +2823,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>11</v>
+        <v>200</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2823,16 +2840,16 @@
         <v>7</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>11</v>
+        <v>203</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2840,16 +2857,16 @@
         <v>7</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>11</v>
+        <v>206</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2857,16 +2874,16 @@
         <v>7</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>11</v>
+        <v>209</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2874,16 +2891,16 @@
         <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>11</v>
+        <v>213</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2891,16 +2908,16 @@
         <v>7</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>11</v>
+        <v>215</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/CheckTranslationWidthAPP/CheckTranslationWidthAPP/bin/Debug/C-E-Spanish.xlsx
+++ b/CheckTranslationWidthAPP/CheckTranslationWidthAPP/bin/Debug/C-E-Spanish.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="216">
   <si>
     <t>校验码</t>
   </si>
@@ -669,10 +669,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -682,7 +682,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -705,14 +757,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -726,21 +810,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -756,76 +826,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -853,187 +853,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,6 +1044,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1071,30 +1086,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1106,21 +1097,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,151 +1120,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1694,7 +1694,9 @@
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">

--- a/CheckTranslationWidthAPP/CheckTranslationWidthAPP/bin/Debug/C-E-Spanish.xlsx
+++ b/CheckTranslationWidthAPP/CheckTranslationWidthAPP/bin/Debug/C-E-Spanish.xlsx
@@ -1,689 +1,1034 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr autoCompressPictures="1"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView tabRatio="600"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
-    <sheet name="翻译" sheetId="1" r:id="rId3"/>
+    <sheet name="翻译" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="216">
-  <si>
-    <t xml:space="preserve">校验码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8738ff5e0b2d00486805feefa798d0cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仪器类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key_str</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大五分类</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_GroupGeneral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通用组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_SerialNoAbbreviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Auditor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">审核者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_NeuDecrease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中性粒细胞减少</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutropenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NeutropeniaU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_RbcAbnDistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">红细胞粒度分布异常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal RBC size distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_DimorphicRbcPopulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">双峰红细胞分布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bimodal RBC distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_RetAbnScattergram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RET分布异常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal RET distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Reticulocytosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网状红细胞增加</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETIC increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Anemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贫血</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_PltAbnDistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">血小板粒度分布异常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal PLT size distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_WbcAbnDistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白细胞粒度分布异常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal WBC size distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_WBCAbnScattervgram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白血细胞散点图异常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal WBC scatter diagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_RrbcPresent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出现难溶红细胞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indissolvable RBC appears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indissolvable RBC appearsU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_RbcAgglutination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可能有红细胞聚集？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBC aggregation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_TurbidityAndHGBInterf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可能乳糜血对HGB造成影响？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chylemia affects HGB?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_IronDeficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可能缺铁？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron deficiency?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_HgbDefect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可能出现HGB异常？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal HGB?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Fragments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可能有破碎的红细胞？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragmented RBC?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_PRbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可能有寄生虫感染的RBC？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parasitic infected RBC?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Blast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可能存在芽球？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemmule?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemmule?U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_AbnLympho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可能出现异常淋巴细胞？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal LYM?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_LeftShift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可能左移？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left shift?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_AtypicalLympho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可能有异型淋巴球？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atypical LYM?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">错误</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ErrorU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_ReticTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网织红测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">确认</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Init_OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Login_Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Data_QueryingPleaseWait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正在查询，请稍候...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querying. Please wait...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Log_InfoNormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">常规</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneralU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Log_InfoError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">序号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_Display_Animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">动物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_AlarmSuspected_MaxSensitivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_Print_Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">颜色</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_Print_Horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">横向</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_Print_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">纵向</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_Print_FaultAlarmInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仪器故障</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_Scanner_Digit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_Time_Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_User_Auditor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_User_SerialNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Setup_Dict_SerialNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_QC_SerialNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_QC_MidValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_QC_Cal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">校准</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Cal_CalValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">校准系数(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Cal_CalValue1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">校准系数1(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal 1(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Cal_CalValue2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">校准系数2(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal 2(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal 2(%)U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Cal_CalValue3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">校准系数3(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal 3(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Cal_CalValue4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">校准系数4(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal 4(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Cal_CalValue5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">校准系数5(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal 5(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Cal_CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Cal_History_Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">校准历史</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal His</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Print_Auditor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">审核者：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditor:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Print_QCPrintTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">质控打印标题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QC print title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_Print_CalValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cal(%)U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_AutoSampleState_Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_AutoSampleState_Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_ReagentCount_Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">试剂消耗统计</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistics of reagent consumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_ReagentCount_FilterRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">筛选范围:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sreening range:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_ReagentCount_FilterAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">筛选动作:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrrening action:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_ReagentCount_FilterUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">筛选用户:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screening users:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screening users:U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_ReagentCount_Bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开机</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_ReagentCount_Shutdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关机</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shut down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_ReagentCount_AnalyzerInitialization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仪器初始化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzer initialization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_ReagentCount_FullBloodTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全血计数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whole blood test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_ReagentCount_DiluentTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预稀释计数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diluent blood test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_ReagentCount_Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工程师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_CleanUpTestResultWindow_TotalLb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全部数据量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_LJQCImportWindow_QCFile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">本地</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str_LJQCImportWindow_XML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="216">
+  <si>
+    <t>校验码</t>
+  </si>
+  <si>
+    <t>8738ff5e0b2d00486805feefa798d0cc</t>
+  </si>
+  <si>
+    <t>仪器类型</t>
+  </si>
+  <si>
+    <t>key_str</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>大五分类</t>
+  </si>
+  <si>
+    <t>str_GroupGeneral</t>
+  </si>
+  <si>
+    <t>通用组</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>str_SerialNoAbbreviation</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>str_Auditor</t>
+  </si>
+  <si>
+    <t>审核者</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>str_NeuDecrease</t>
+  </si>
+  <si>
+    <t>中性粒细胞减少</t>
+  </si>
+  <si>
+    <t>Neutropenia</t>
+  </si>
+  <si>
+    <t>NeutropeniaU</t>
+  </si>
+  <si>
+    <t>str_RbcAbnDistribution</t>
+  </si>
+  <si>
+    <t>红细胞粒度分布异常</t>
+  </si>
+  <si>
+    <t>Abnormal RBC size distribution</t>
+  </si>
+  <si>
+    <t>str_DimorphicRbcPopulation</t>
+  </si>
+  <si>
+    <t>双峰红细胞分布</t>
+  </si>
+  <si>
+    <t>Bimodal RBC distribution</t>
+  </si>
+  <si>
+    <t>str_RetAbnScattergram</t>
+  </si>
+  <si>
+    <t>RET分布异常</t>
+  </si>
+  <si>
+    <t>Abnormal RET distribution</t>
+  </si>
+  <si>
+    <t>str_Reticulocytosis</t>
+  </si>
+  <si>
+    <t>网状红细胞增加</t>
+  </si>
+  <si>
+    <t>RETIC increase</t>
+  </si>
+  <si>
+    <t>str_Anemia</t>
+  </si>
+  <si>
+    <t>贫血</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>str_PltAbnDistribution</t>
+  </si>
+  <si>
+    <t>血小板粒度分布异常</t>
+  </si>
+  <si>
+    <t>Abnormal PLT size distribution</t>
+  </si>
+  <si>
+    <t>str_WbcAbnDistribution</t>
+  </si>
+  <si>
+    <t>白细胞粒度分布异常</t>
+  </si>
+  <si>
+    <t>Abnormal WBC size distribution</t>
+  </si>
+  <si>
+    <t>str_WBCAbnScattervgram</t>
+  </si>
+  <si>
+    <t>白血细胞散点图异常</t>
+  </si>
+  <si>
+    <t>Abnormal WBC scatter diagram</t>
+  </si>
+  <si>
+    <t>str_RrbcPresent</t>
+  </si>
+  <si>
+    <t>出现难溶红细胞</t>
+  </si>
+  <si>
+    <t>Indissolvable RBC appears</t>
+  </si>
+  <si>
+    <t>Indissolvable RBC appearsU</t>
+  </si>
+  <si>
+    <t>str_RbcAgglutination</t>
+  </si>
+  <si>
+    <t>可能有红细胞聚集？</t>
+  </si>
+  <si>
+    <t>RBC aggregation?</t>
+  </si>
+  <si>
+    <t>str_TurbidityAndHGBInterf</t>
+  </si>
+  <si>
+    <t>可能乳糜血对HGB造成影响？</t>
+  </si>
+  <si>
+    <t>Chylemia affects HGB?</t>
+  </si>
+  <si>
+    <t>str_IronDeficiency</t>
+  </si>
+  <si>
+    <t>可能缺铁？</t>
+  </si>
+  <si>
+    <t>Iron deficiency?</t>
+  </si>
+  <si>
+    <t>str_HgbDefect</t>
+  </si>
+  <si>
+    <t>可能出现HGB异常？</t>
+  </si>
+  <si>
+    <t>Abnormal HGB?</t>
+  </si>
+  <si>
+    <t>str_Fragments</t>
+  </si>
+  <si>
+    <t>可能有破碎的红细胞？</t>
+  </si>
+  <si>
+    <t>Fragmented RBC?</t>
+  </si>
+  <si>
+    <t>str_PRbc</t>
+  </si>
+  <si>
+    <t>可能有寄生虫感染的RBC？</t>
+  </si>
+  <si>
+    <t>Parasitic infected RBC?</t>
+  </si>
+  <si>
+    <t>str_Blast</t>
+  </si>
+  <si>
+    <t>可能存在芽球？</t>
+  </si>
+  <si>
+    <t>Gemmule?</t>
+  </si>
+  <si>
+    <t>Gemmule?U</t>
+  </si>
+  <si>
+    <t>str_AbnLympho</t>
+  </si>
+  <si>
+    <t>可能出现异常淋巴细胞？</t>
+  </si>
+  <si>
+    <t>Abnormal LYM?</t>
+  </si>
+  <si>
+    <t>str_LeftShift</t>
+  </si>
+  <si>
+    <t>可能左移？</t>
+  </si>
+  <si>
+    <t>Left shift?</t>
+  </si>
+  <si>
+    <t>str_AtypicalLympho</t>
+  </si>
+  <si>
+    <t>可能有异型淋巴球？</t>
+  </si>
+  <si>
+    <t>Atypical LYM?</t>
+  </si>
+  <si>
+    <t>str_Error</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>ErrorU</t>
+  </si>
+  <si>
+    <t>str_ReticTest</t>
+  </si>
+  <si>
+    <t>网织红测试</t>
+  </si>
+  <si>
+    <t>Retic</t>
+  </si>
+  <si>
+    <t>str_OK</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>str_No</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>NoU</t>
+  </si>
+  <si>
+    <t>str_Init_OK</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>str_Login_Login</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>str_Data_QueryingPleaseWait</t>
+  </si>
+  <si>
+    <t>正在查询，请稍候...</t>
+  </si>
+  <si>
+    <t>Querying. Please wait...</t>
+  </si>
+  <si>
+    <t>str_Log_InfoNormal</t>
+  </si>
+  <si>
+    <t>常规</t>
+  </si>
+  <si>
+    <t>GeneralU</t>
+  </si>
+  <si>
+    <t>str_Log_InfoError</t>
+  </si>
+  <si>
+    <t>str_Setup_General</t>
+  </si>
+  <si>
+    <t>str_Setup_SN</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>str_Setup_Display_Animal</t>
+  </si>
+  <si>
+    <t>动物</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>str_Setup_AlarmSuspected_MaxSensitivity</t>
+  </si>
+  <si>
+    <t>最大 100</t>
+  </si>
+  <si>
+    <t>Max 100</t>
+  </si>
+  <si>
+    <t>str_Setup_Print_Color</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>str_Setup_Print_Horizontal</t>
+  </si>
+  <si>
+    <t>横向</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>str_Setup_Print_Vertical</t>
+  </si>
+  <si>
+    <t>纵向</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>str_Setup_Print_FaultAlarmInfo</t>
+  </si>
+  <si>
+    <t>仪器故障</t>
+  </si>
+  <si>
+    <t>Instrument failure</t>
+  </si>
+  <si>
+    <t>str_Setup_Scanner_Digit</t>
+  </si>
+  <si>
+    <t>位</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>str_Setup_Time_Unit</t>
+  </si>
+  <si>
+    <t>(s)</t>
+  </si>
+  <si>
+    <t>str_Setup_User_Auditor</t>
+  </si>
+  <si>
+    <t>str_Setup_User_SerialNo</t>
+  </si>
+  <si>
+    <t>str_Setup_Dict_SerialNo</t>
+  </si>
+  <si>
+    <t>str_QC_SerialNo</t>
+  </si>
+  <si>
+    <t>str_QC_MidValue</t>
+  </si>
+  <si>
+    <t>中值</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>str_QC_Cal</t>
+  </si>
+  <si>
+    <t>校准</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>str_Cal_CalValue</t>
+  </si>
+  <si>
+    <t>校准系数(%)</t>
+  </si>
+  <si>
+    <t>Cal(%)</t>
+  </si>
+  <si>
+    <t>str_Cal_CalValue1</t>
+  </si>
+  <si>
+    <t>校准系数1(%)</t>
+  </si>
+  <si>
+    <t>Cal 1(%)</t>
+  </si>
+  <si>
+    <t>str_Cal_CalValue2</t>
+  </si>
+  <si>
+    <t>校准系数2(%)</t>
+  </si>
+  <si>
+    <t>Cal 2(%)</t>
+  </si>
+  <si>
+    <t>Cal 2(%)U</t>
+  </si>
+  <si>
+    <t>str_Cal_CalValue3</t>
+  </si>
+  <si>
+    <t>校准系数3(%)</t>
+  </si>
+  <si>
+    <t>Cal 3(%)</t>
+  </si>
+  <si>
+    <t>str_Cal_CalValue4</t>
+  </si>
+  <si>
+    <t>校准系数4(%)</t>
+  </si>
+  <si>
+    <t>Cal 4(%)</t>
+  </si>
+  <si>
+    <t>str_Cal_CalValue5</t>
+  </si>
+  <si>
+    <t>校准系数5(%)</t>
+  </si>
+  <si>
+    <t>Cal 5(%)</t>
+  </si>
+  <si>
+    <t>str_Cal_CV</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>str_Cal_History_Title</t>
+  </si>
+  <si>
+    <t>校准历史</t>
+  </si>
+  <si>
+    <t>Cal His</t>
+  </si>
+  <si>
+    <t>str_Print_Auditor</t>
+  </si>
+  <si>
+    <t>审核者：</t>
+  </si>
+  <si>
+    <t>Auditor:</t>
+  </si>
+  <si>
+    <t>str_Print_QCPrintTitle</t>
+  </si>
+  <si>
+    <t>质控打印标题</t>
+  </si>
+  <si>
+    <t>QC print title</t>
+  </si>
+  <si>
+    <t>str_Print_CalValue</t>
+  </si>
+  <si>
+    <t>Cal(%)U</t>
+  </si>
+  <si>
+    <t>str_AutoSampleState_Normal</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>str_AutoSampleState_Error</t>
+  </si>
+  <si>
+    <t>str_ReagentCount_Title</t>
+  </si>
+  <si>
+    <t>试剂消耗统计</t>
+  </si>
+  <si>
+    <t>Statistics of reagent consumption</t>
+  </si>
+  <si>
+    <t>str_ReagentCount_FilterRange</t>
+  </si>
+  <si>
+    <t>筛选范围:</t>
+  </si>
+  <si>
+    <t>Sreening range:</t>
+  </si>
+  <si>
+    <t>str_ReagentCount_FilterAction</t>
+  </si>
+  <si>
+    <t>筛选动作:</t>
+  </si>
+  <si>
+    <t>Scrrening action:</t>
+  </si>
+  <si>
+    <t>str_ReagentCount_FilterUser</t>
+  </si>
+  <si>
+    <t>筛选用户:</t>
+  </si>
+  <si>
+    <t>Screening users:</t>
+  </si>
+  <si>
+    <t>Screening users:U</t>
+  </si>
+  <si>
+    <t>str_ReagentCount_Bootstrap</t>
+  </si>
+  <si>
+    <t>开机</t>
+  </si>
+  <si>
+    <t>Start up</t>
+  </si>
+  <si>
+    <t>str_ReagentCount_Shutdown</t>
+  </si>
+  <si>
+    <t>关机</t>
+  </si>
+  <si>
+    <t>Shut down</t>
+  </si>
+  <si>
+    <t>str_ReagentCount_AnalyzerInitialization</t>
+  </si>
+  <si>
+    <t>仪器初始化</t>
+  </si>
+  <si>
+    <t>Analyzer initialization</t>
+  </si>
+  <si>
+    <t>str_ReagentCount_FullBloodTest</t>
+  </si>
+  <si>
+    <t>全血计数</t>
+  </si>
+  <si>
+    <t>Whole blood test</t>
+  </si>
+  <si>
+    <t>str_ReagentCount_DiluentTest</t>
+  </si>
+  <si>
+    <t>预稀释计数</t>
+  </si>
+  <si>
+    <t>Diluent blood test</t>
+  </si>
+  <si>
+    <t>str_ReagentCount_Engineer</t>
+  </si>
+  <si>
+    <t>工程师</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>str_CleanUpTestResultWindow_TotalLb</t>
+  </si>
+  <si>
+    <t>全部数据量</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TotalU</t>
+  </si>
+  <si>
+    <t>str_LJQCImportWindow_QCFile</t>
+  </si>
+  <si>
+    <t>本地</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>str_LJQCImportWindow_XML</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -691,25 +1036,586 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -734,7 +1640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -751,7 +1657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -764,11 +1670,8 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -785,7 +1688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -802,7 +1705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -819,7 +1722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -836,7 +1739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -853,7 +1756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -870,7 +1773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -887,7 +1790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -904,7 +1807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -921,7 +1824,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -938,7 +1841,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -955,7 +1858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -972,7 +1875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -989,7 +1892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1909,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1023,7 +1926,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1040,7 +1943,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1057,7 +1960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1994,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +2011,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +2028,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +2045,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +2062,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +2079,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +2096,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +2113,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +2130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +2147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +2164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1278,7 +2181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +2198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +2215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1329,7 +2232,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +2249,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1363,7 +2266,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1380,7 +2283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1397,7 +2300,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +2317,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +2334,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1448,7 +2351,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +2368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1482,7 +2385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1499,7 +2402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1516,7 +2419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +2436,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +2453,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1567,7 +2470,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +2487,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1601,7 +2504,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +2521,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1635,7 +2538,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1652,7 +2555,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1669,7 +2572,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +2589,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1703,7 +2606,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1720,7 +2623,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1737,7 +2640,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +2657,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1771,7 +2674,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1788,7 +2691,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1805,7 +2708,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +2725,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1839,7 +2742,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1856,7 +2759,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1873,7 +2776,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1890,7 +2793,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1907,7 +2810,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1924,7 +2827,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +2844,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -1958,7 +2861,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1975,7 +2878,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1994,5 +2897,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>